--- a/biology/Zoologie/Accenteur_à_poitrine_rousse/Accenteur_à_poitrine_rousse.xlsx
+++ b/biology/Zoologie/Accenteur_à_poitrine_rousse/Accenteur_à_poitrine_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_poitrine_rousse</t>
+          <t>Accenteur_à_poitrine_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Accenteur à poitrine rousse (Prunella strophiata) est une espèce de petits oiseaux passereaux de la famille des Prunellidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_poitrine_rousse</t>
+          <t>Accenteur_à_poitrine_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_poitrine_rousse</t>
+          <t>Accenteur_à_poitrine_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -534,12 +548,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Répartition et habitat</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire s'étend du centre du Pakistan à travers l'Himalaya au nord du Yunnan et le centre de la Chine.
+</t>
         </is>
       </c>
     </row>
@@ -549,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_poitrine_rousse</t>
+          <t>Accenteur_à_poitrine_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,10 +590,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Son aire s'étend du centre du Pakistan à travers l'Himalaya au nord du Yunnan et le centre de la Chine.
-Habitat
-Il habite les forêts tempérées.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il habite les forêts tempérées.
 </t>
         </is>
       </c>
@@ -583,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Accenteur_%C3%A0_poitrine_rousse</t>
+          <t>Accenteur_à_poitrine_rousse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,11 +625,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Prunella strophiata a été décrite par le zoologiste britannique Edward Blyth en 1843, sous le nom initial d'Accentor strophiatus[1].
-Sous-espèces
-Cet oiseau est représenté par deux sous-espèces :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Prunella strophiata a été décrite par le zoologiste britannique Edward Blyth en 1843, sous le nom initial d'Accentor strophiatus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Accenteur_à_poitrine_rousse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Accenteur_%C3%A0_poitrine_rousse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cet oiseau est représenté par deux sous-espèces :
 Prunella strophiata strophiata ;
 Prunella strophiata jerdoni.</t>
         </is>
